--- a/excelsource.xlsx
+++ b/excelsource.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mn/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/ds/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D049A03-2102-AE43-8E6A-FE79B2120ABA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="3280" windowWidth="17660" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="340" yWindow="3280" windowWidth="17660" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="25">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -62,41 +63,13 @@
     <t>M5X533</t>
   </si>
   <si>
-    <t>M5X533</t>
-    <rPh sb="0" eb="1">
-      <t>ヒル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>M3X270</t>
-  </si>
-  <si>
-    <t>M3X270</t>
-    <rPh sb="0" eb="1">
-      <t>ヒル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>M5X600</t>
   </si>
   <si>
-    <t>M5X600</t>
-    <rPh sb="0" eb="1">
-      <t>ヒル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MX500ﾒｽ</t>
-  </si>
-  <si>
-    <t>MX500ﾒｽ</t>
-    <rPh sb="0" eb="1">
-      <t>ヒル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>sortgroup</t>
@@ -159,11 +132,27 @@
     <t>連続評価１結果</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -580,7 +569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -594,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -610,7 +599,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -625,13 +614,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -646,14 +635,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="str">
-        <f>D2</f>
-        <v>M5X533</v>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -668,14 +656,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F11" si="1">D3</f>
-        <v>M3X270</v>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -690,14 +677,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>M5X533</v>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -712,14 +698,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>M5X600</v>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -734,14 +719,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>M5X533</v>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -756,14 +740,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>M5X600</v>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -778,14 +761,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>M5X533</v>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -800,14 +782,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>M5X533</v>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -822,14 +803,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>MX500ﾒｽ</v>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -844,14 +824,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>M5X533</v>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -901,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DS207"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -920,34 +899,34 @@
   <sheetData>
     <row r="1" spans="1:123">
       <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:123">
@@ -987,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>
@@ -1054,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="7">
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1136,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1259,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1382,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -1449,13 +1428,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7">
         <v>6</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
@@ -1501,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -1553,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -1657,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
         <v>2</v>
@@ -1709,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7">
         <v>6</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
         <v>2</v>
@@ -1735,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" s="7">
         <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I26" s="7">
         <v>2</v>
@@ -1839,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E30" s="7">
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I30" s="7">
         <v>2</v>
@@ -1917,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" s="7">
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I33" s="7">
         <v>3</v>
@@ -1969,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35" s="7">
         <v>6</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I35" s="7">
         <v>3</v>
@@ -1995,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" s="7">
         <v>1</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I36" s="7">
         <v>3</v>
@@ -2073,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E39" s="7">
         <v>1</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I39" s="7">
         <v>3</v>
@@ -2177,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="7">
         <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I43" s="7">
         <v>4</v>
@@ -2203,13 +2182,13 @@
         <v>1</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44" s="7">
         <v>6</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I44" s="7">
         <v>4</v>
@@ -2281,13 +2260,13 @@
         <v>0</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" s="7">
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I47" s="7">
         <v>4</v>
@@ -2359,13 +2338,13 @@
         <v>0</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E50" s="7">
         <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I50" s="7">
         <v>4</v>
@@ -2437,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="7">
         <v>1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I53" s="7">
         <v>5</v>
@@ -2463,13 +2442,13 @@
         <v>1</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E54" s="7">
         <v>6</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I54" s="7">
         <v>5</v>
@@ -2541,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57" s="7">
         <v>1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I57" s="7">
         <v>5</v>
@@ -2593,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E59" s="7">
         <v>1</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I59" s="7">
         <v>5</v>
@@ -2697,13 +2676,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I63" s="7">
         <v>6</v>
@@ -2723,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E64" s="7">
         <v>6</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I64" s="7">
         <v>6</v>
@@ -2775,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E66" s="7">
         <v>1</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I66" s="7">
         <v>6</v>
@@ -2879,13 +2858,13 @@
         <v>0</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E70" s="7">
         <v>1</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I70" s="7">
         <v>6</v>
@@ -2957,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" s="7">
         <v>1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I73" s="7">
         <v>7</v>
@@ -2983,13 +2962,13 @@
         <v>1</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E74" s="7">
         <v>6</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I74" s="7">
         <v>7</v>
@@ -3035,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E76" s="7">
         <v>1</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I76" s="7">
         <v>7</v>
@@ -3113,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E79" s="7">
         <v>1</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I79" s="7">
         <v>7</v>
@@ -3191,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82" s="7">
         <v>1</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I82" s="7">
         <v>8</v>
@@ -3269,13 +3248,13 @@
         <v>1</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E85" s="7">
         <v>6</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I85" s="7">
         <v>8</v>
@@ -3321,13 +3300,13 @@
         <v>0</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E87" s="7">
         <v>1</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I87" s="7">
         <v>8</v>
@@ -3399,13 +3378,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E90" s="7">
         <v>1</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I90" s="7">
         <v>8</v>
@@ -3451,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" s="7">
         <v>1</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I92" s="7">
         <v>9</v>
@@ -3529,13 +3508,13 @@
         <v>1</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E95" s="7">
         <v>6</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I95" s="7">
         <v>9</v>
@@ -3581,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I97" s="7">
         <v>9</v>
@@ -3633,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I99" s="7">
         <v>9</v>
@@ -3711,13 +3690,13 @@
         <v>0</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E102" s="7">
         <v>1</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I102" s="7">
         <v>10</v>
@@ -3789,13 +3768,13 @@
         <v>1</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E105" s="7">
         <v>6</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I105" s="7">
         <v>10</v>
@@ -3815,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I106" s="7">
         <v>10</v>
@@ -3919,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E110" s="7">
         <v>1</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I110" s="7">
         <v>10</v>
@@ -3971,13 +3950,13 @@
         <v>0</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112" s="7">
         <v>1</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I112" s="7">
         <v>11</v>
@@ -4049,13 +4028,13 @@
         <v>1</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E115" s="7">
         <v>6</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I115" s="7">
         <v>11</v>
@@ -4075,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E116" s="7">
         <v>1</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I116" s="7">
         <v>11</v>
@@ -4153,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E119" s="7">
         <v>1</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I119" s="7">
         <v>11</v>
@@ -4231,13 +4210,13 @@
         <v>0</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E122" s="7">
         <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I122" s="7">
         <v>12</v>
@@ -4283,13 +4262,13 @@
         <v>1</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E124" s="7">
         <v>6</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I124" s="7">
         <v>12</v>
@@ -4361,13 +4340,13 @@
         <v>0</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E127" s="7">
         <v>1</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I127" s="7">
         <v>12</v>
@@ -4439,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E130" s="7">
         <v>1</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I130" s="7">
         <v>12</v>
@@ -4491,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E132" s="7">
         <v>1</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I132" s="7">
         <v>13</v>
@@ -4543,13 +4522,13 @@
         <v>1</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E134" s="7">
         <v>6</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I134" s="7">
         <v>13</v>
@@ -4621,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E137" s="7">
         <v>1</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I137" s="7">
         <v>13</v>
@@ -4673,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E139" s="7">
         <v>1</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I139" s="7">
         <v>13</v>
@@ -4751,13 +4730,13 @@
         <v>0</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E142" s="7">
         <v>1</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I142" s="7">
         <v>14</v>
@@ -4803,13 +4782,13 @@
         <v>1</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E144" s="7">
         <v>6</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I144" s="7">
         <v>14</v>
@@ -4855,13 +4834,13 @@
         <v>0</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E146" s="7">
         <v>1</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I146" s="7">
         <v>14</v>
@@ -4959,13 +4938,13 @@
         <v>0</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E150" s="7">
         <v>1</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I150" s="7">
         <v>14</v>
@@ -5011,13 +4990,13 @@
         <v>0</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I152" s="7">
         <v>15</v>
@@ -5063,13 +5042,13 @@
         <v>1</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E154" s="7">
         <v>6</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I154" s="7">
         <v>15</v>
@@ -5115,13 +5094,13 @@
         <v>0</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E156" s="7">
         <v>1</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I156" s="7">
         <v>15</v>
@@ -5193,13 +5172,13 @@
         <v>0</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E159" s="7">
         <v>1</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I159" s="7">
         <v>15</v>
